--- a/output/report_1-30_September_2024.xlsx
+++ b/output/report_1-30_September_2024.xlsx
@@ -9,7 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Payroll" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Rincian Jam Kerja" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Detail Perhitungan Gaji" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="57043_HERMANTO" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="57035_MICERI_KARDIAS_DOMINI" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
@@ -444,8 +444,8 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="5" customWidth="1" style="14" min="1" max="1"/>
-    <col width="16" customWidth="1" style="14" min="2" max="2"/>
-    <col width="8" customWidth="1" style="14" min="3" max="3"/>
+    <col width="9" customWidth="1" style="14" min="2" max="2"/>
+    <col width="21" customWidth="1" style="14" min="3" max="3"/>
     <col width="9" customWidth="1" style="14" min="4" max="4"/>
   </cols>
   <sheetData>
@@ -475,18 +475,16 @@
       <c r="A2" t="n">
         <v>1</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>109-002-063-2394</t>
-        </is>
+      <c r="B2" t="n">
+        <v/>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>HERMANTO</t>
+          <t>MICERI KARDIAS DOMINI</t>
         </is>
       </c>
       <c r="D2" s="22" t="n">
-        <v>1045000</v>
+        <v>6123040</v>
       </c>
     </row>
     <row r="3">
@@ -3594,21 +3592,23 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>57043</t>
+          <t>57035</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>HERMANTO</t>
+          <t>MICERI KARDIAS DOMINI</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>STORE</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v/>
+          <t>WELDER T</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>KSB</t>
+        </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -3617,12 +3617,12 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>07:30</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -3640,49 +3640,49 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>07:30</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>57043_HERMANTO</t>
+          <t>57035_MICERI_KARDIAS_DOMINI</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>57043</t>
+          <t>57035</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>HERMANTO</t>
+          <t>MICERI KARDIAS DOMINI</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>STORE</t>
+          <t>WELDER T</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -3743,28 +3743,30 @@
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>57043_HERMANTO</t>
+          <t>57035_MICERI_KARDIAS_DOMINI</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>57043</t>
+          <t>57035</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>HERMANTO</t>
+          <t>MICERI KARDIAS DOMINI</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>STORE</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v/>
+          <t>WELDER T</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>KSB</t>
+        </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -3773,12 +3775,12 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>07:30</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>17:30</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -3796,53 +3798,55 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>07:30</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>17:30</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>57043_HERMANTO</t>
+          <t>57035_MICERI_KARDIAS_DOMINI</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>57043</t>
+          <t>57035</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>HERMANTO</t>
+          <t>MICERI KARDIAS DOMINI</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>STORE</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v/>
+          <t>WELDER T</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>KSB</t>
+        </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -3851,12 +3855,12 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>07:30</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -3874,16 +3878,16 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>07:30</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
@@ -3892,35 +3896,37 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>57043_HERMANTO</t>
+          <t>57035_MICERI_KARDIAS_DOMINI</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>57043</t>
+          <t>57035</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>HERMANTO</t>
+          <t>MICERI KARDIAS DOMINI</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>STORE</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v/>
+          <t>WELDER T</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>KSB</t>
+        </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -3929,12 +3935,12 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>07:36</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>17:30</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -3952,53 +3958,55 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>07:30</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>17:30</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>57043_HERMANTO</t>
+          <t>57035_MICERI_KARDIAS_DOMINI</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>57043</t>
+          <t>57035</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>HERMANTO</t>
+          <t>MICERI KARDIAS DOMINI</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>STORE</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v/>
+          <t>WELDER T</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>KSB</t>
+        </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -4007,12 +4015,12 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>07:35</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>17:30</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -4030,53 +4038,55 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>07:30</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>17:30</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N7" t="n">
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>57043_HERMANTO</t>
+          <t>57035_MICERI_KARDIAS_DOMINI</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>57043</t>
+          <t>57035</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>HERMANTO</t>
+          <t>MICERI KARDIAS DOMINI</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>STORE</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
-        <v/>
+          <t>WELDER T</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>KSB</t>
+        </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -4085,12 +4095,12 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>07:30</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>17:30</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -4108,53 +4118,55 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>07:30</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>17:30</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>57043_HERMANTO</t>
+          <t>57035_MICERI_KARDIAS_DOMINI</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>57043</t>
+          <t>57035</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>HERMANTO</t>
+          <t>MICERI KARDIAS DOMINI</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>STORE</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v/>
+          <t>WELDER T</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>KSB</t>
+        </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -4163,12 +4175,12 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>07:30</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -4186,53 +4198,55 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>07:30</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>57043_HERMANTO</t>
+          <t>57035_MICERI_KARDIAS_DOMINI</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>57043</t>
+          <t>57035</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>HERMANTO</t>
+          <t>MICERI KARDIAS DOMINI</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>STORE</t>
-        </is>
-      </c>
-      <c r="D10" t="n">
-        <v/>
+          <t>WELDER T</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>KSB</t>
+        </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -4241,12 +4255,12 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>07:30</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>17:30</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -4264,53 +4278,55 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>07:30</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>17:30</t>
         </is>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>57043_HERMANTO</t>
+          <t>57035_MICERI_KARDIAS_DOMINI</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>57043</t>
+          <t>57035</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>HERMANTO</t>
+          <t>MICERI KARDIAS DOMINI</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>STORE</t>
-        </is>
-      </c>
-      <c r="D11" t="n">
-        <v/>
+          <t>WELDER T</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>KSB</t>
+        </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -4319,12 +4335,12 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>07:36</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>17:30</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -4342,53 +4358,55 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>07:30</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>17:30</t>
         </is>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>57043_HERMANTO</t>
+          <t>57035_MICERI_KARDIAS_DOMINI</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>57043</t>
+          <t>57035</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>HERMANTO</t>
+          <t>MICERI KARDIAS DOMINI</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>STORE</t>
-        </is>
-      </c>
-      <c r="D12" t="n">
-        <v/>
+          <t>WELDER T</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>KSB</t>
+        </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -4397,12 +4415,12 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>07:30</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>17:30</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -4420,53 +4438,55 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>07:30</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>17:30</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>57043_HERMANTO</t>
+          <t>57035_MICERI_KARDIAS_DOMINI</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>57043</t>
+          <t>57035</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>HERMANTO</t>
+          <t>MICERI KARDIAS DOMINI</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>STORE</t>
-        </is>
-      </c>
-      <c r="D13" t="n">
-        <v/>
+          <t>WELDER T</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>KSB</t>
+        </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -4475,12 +4495,12 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>07:30</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>17:30</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -4498,53 +4518,55 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>07:30</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>17:30</t>
         </is>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>57043_HERMANTO</t>
+          <t>57035_MICERI_KARDIAS_DOMINI</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>57043</t>
+          <t>57035</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>HERMANTO</t>
+          <t>MICERI KARDIAS DOMINI</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>STORE</t>
-        </is>
-      </c>
-      <c r="D14" t="n">
-        <v/>
+          <t>WELDER T</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>KSB</t>
+        </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -4553,12 +4575,12 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>07:30</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>17:30</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -4576,53 +4598,55 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>07:30</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>17:30</t>
         </is>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>57043_HERMANTO</t>
+          <t>57035_MICERI_KARDIAS_DOMINI</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>57043</t>
+          <t>57035</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>HERMANTO</t>
+          <t>MICERI KARDIAS DOMINI</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>STORE</t>
-        </is>
-      </c>
-      <c r="D15" t="n">
-        <v/>
+          <t>WELDER T</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>KSB</t>
+        </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -4631,12 +4655,12 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>08:30</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>17:30</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -4654,53 +4678,55 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>08:30</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>17:30</t>
         </is>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>57043_HERMANTO</t>
+          <t>57035_MICERI_KARDIAS_DOMINI</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>57043</t>
+          <t>57035</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>HERMANTO</t>
+          <t>MICERI KARDIAS DOMINI</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>STORE</t>
-        </is>
-      </c>
-      <c r="D16" t="n">
-        <v/>
+          <t>WELDER T</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>KSB</t>
+        </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -4709,12 +4735,12 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>07:30</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -4732,49 +4758,49 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>07:30</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>57043_HERMANTO</t>
+          <t>57035_MICERI_KARDIAS_DOMINI</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>57043</t>
+          <t>57035</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>HERMANTO</t>
+          <t>MICERI KARDIAS DOMINI</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>STORE</t>
+          <t>WELDER T</t>
         </is>
       </c>
       <c r="D17" t="n">
@@ -4837,28 +4863,30 @@
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>57043_HERMANTO</t>
+          <t>57035_MICERI_KARDIAS_DOMINI</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>57043</t>
+          <t>57035</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>HERMANTO</t>
+          <t>MICERI KARDIAS DOMINI</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>STORE</t>
-        </is>
-      </c>
-      <c r="D18" t="n">
-        <v/>
+          <t>WELDER T</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>KSB</t>
+        </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -4867,12 +4895,12 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>07:30</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>17:30</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -4890,49 +4918,49 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>07:30</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>17:30</t>
         </is>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>57043_HERMANTO</t>
+          <t>57035_MICERI_KARDIAS_DOMINI</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>57043</t>
+          <t>57035</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>HERMANTO</t>
+          <t>MICERI KARDIAS DOMINI</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>STORE</t>
+          <t>WELDER T</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -4947,7 +4975,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>08:30</t>
+          <t>07:30</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -4970,7 +4998,7 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>08:30</t>
+          <t>07:30</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
@@ -4979,40 +5007,40 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="N19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
         <v>1</v>
       </c>
       <c r="P19" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="Q19" t="n">
-        <v>7</v>
+        <v>10.5</v>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>57043_HERMANTO</t>
+          <t>57035_MICERI_KARDIAS_DOMINI</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>57043</t>
+          <t>57035</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>HERMANTO</t>
+          <t>MICERI KARDIAS DOMINI</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>STORE</t>
+          <t>WELDER T</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -5062,37 +5090,37 @@
         <v>10</v>
       </c>
       <c r="N20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>1</v>
       </c>
       <c r="P20" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Q20" t="n">
-        <v>8.5</v>
+        <v>10.5</v>
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>57043_HERMANTO</t>
+          <t>57035_MICERI_KARDIAS_DOMINI</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>57043</t>
+          <t>57035</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>HERMANTO</t>
+          <t>MICERI KARDIAS DOMINI</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>STORE</t>
+          <t>WELDER T</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -5142,37 +5170,37 @@
         <v>10</v>
       </c>
       <c r="N21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>2</v>
       </c>
       <c r="P21" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Q21" t="n">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>57043_HERMANTO</t>
+          <t>57035_MICERI_KARDIAS_DOMINI</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>57043</t>
+          <t>57035</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>HERMANTO</t>
+          <t>MICERI KARDIAS DOMINI</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>STORE</t>
+          <t>WELDER T</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -5222,37 +5250,37 @@
         <v>10</v>
       </c>
       <c r="N22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
         <v>1</v>
       </c>
       <c r="P22" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Q22" t="n">
-        <v>10.5</v>
+        <v>12.5</v>
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>57043_HERMANTO</t>
+          <t>57035_MICERI_KARDIAS_DOMINI</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>57043</t>
+          <t>57035</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>HERMANTO</t>
+          <t>MICERI KARDIAS DOMINI</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>STORE</t>
+          <t>WELDER T</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -5302,41 +5330,43 @@
         <v>8</v>
       </c>
       <c r="N23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>1</v>
       </c>
       <c r="P23" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Q23" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>57043_HERMANTO</t>
+          <t>57035_MICERI_KARDIAS_DOMINI</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>57043</t>
+          <t>57035</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>HERMANTO</t>
+          <t>MICERI KARDIAS DOMINI</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>STORE</t>
-        </is>
-      </c>
-      <c r="D24" t="n">
-        <v/>
+          <t>WELDER T</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>KSB</t>
+        </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -5345,12 +5375,12 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>07:30</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>17:30</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -5368,53 +5398,55 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>07:30</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>17:30</t>
         </is>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>57043_HERMANTO</t>
+          <t>57035_MICERI_KARDIAS_DOMINI</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>57043</t>
+          <t>57035</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>HERMANTO</t>
+          <t>MICERI KARDIAS DOMINI</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>STORE</t>
-        </is>
-      </c>
-      <c r="D25" t="n">
-        <v/>
+          <t>WELDER T</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>KSB</t>
+        </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -5423,12 +5455,12 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>07:30</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>17:30</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -5446,53 +5478,55 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>07:30</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>17:30</t>
         </is>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>57043_HERMANTO</t>
+          <t>57035_MICERI_KARDIAS_DOMINI</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>57043</t>
+          <t>57035</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>HERMANTO</t>
+          <t>MICERI KARDIAS DOMINI</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>STORE</t>
-        </is>
-      </c>
-      <c r="D26" t="n">
-        <v/>
+          <t>WELDER T</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>KSB</t>
+        </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -5501,12 +5535,12 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>07:30</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>17:30</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -5524,49 +5558,49 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>07:30</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>17:30</t>
         </is>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>57043_HERMANTO</t>
+          <t>57035_MICERI_KARDIAS_DOMINI</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>57043</t>
+          <t>57035</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>HERMANTO</t>
+          <t>MICERI KARDIAS DOMINI</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>STORE</t>
+          <t>WELDER T</t>
         </is>
       </c>
       <c r="D27" t="n">
@@ -5627,28 +5661,30 @@
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>57043_HERMANTO</t>
+          <t>57035_MICERI_KARDIAS_DOMINI</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>57043</t>
+          <t>57035</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>HERMANTO</t>
+          <t>MICERI KARDIAS DOMINI</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>STORE</t>
-        </is>
-      </c>
-      <c r="D28" t="n">
-        <v/>
+          <t>WELDER T</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>KSB</t>
+        </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -5657,12 +5693,12 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>07:30</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -5680,53 +5716,55 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>07:30</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>9.5</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>57043_HERMANTO</t>
+          <t>57035_MICERI_KARDIAS_DOMINI</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>57043</t>
+          <t>57035</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>HERMANTO</t>
+          <t>MICERI KARDIAS DOMINI</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>STORE</t>
-        </is>
-      </c>
-      <c r="D29" t="n">
-        <v/>
+          <t>WELDER T</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>KSB</t>
+        </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -5735,12 +5773,12 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>07:30</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -5758,53 +5796,55 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>07:30</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>9.5</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>57043_HERMANTO</t>
+          <t>57035_MICERI_KARDIAS_DOMINI</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>57043</t>
+          <t>57035</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>HERMANTO</t>
+          <t>MICERI KARDIAS DOMINI</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>STORE</t>
-        </is>
-      </c>
-      <c r="D30" t="n">
-        <v/>
+          <t>WELDER T</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>KSB</t>
+        </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -5813,12 +5853,12 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>07:30</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -5836,53 +5876,55 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>07:30</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>57043_HERMANTO</t>
+          <t>57035_MICERI_KARDIAS_DOMINI</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>57043</t>
+          <t>57035</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>HERMANTO</t>
+          <t>MICERI KARDIAS DOMINI</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>STORE</t>
-        </is>
-      </c>
-      <c r="D31" t="n">
-        <v/>
+          <t>WELDER T</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>KSB</t>
+        </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -5891,12 +5933,12 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>07:30</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>17:30</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -5914,32 +5956,32 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>07:30</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>17:30</t>
         </is>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>57043_HERMANTO</t>
+          <t>57035_MICERI_KARDIAS_DOMINI</t>
         </is>
       </c>
     </row>
@@ -6092,43 +6134,39 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>57043</t>
+          <t>57035</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>HERMANTO</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>109-002-063-2394</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>68.549.095.5-215.000</t>
-        </is>
+          <t>MICERI KARDIAS DOMINI</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v/>
+      </c>
+      <c r="D2" t="n">
+        <v/>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>STORE</t>
+          <t>WELDER T</t>
         </is>
       </c>
       <c r="F2" t="n">
         <v>20000</v>
       </c>
       <c r="G2" t="n">
-        <v>21000</v>
+        <v>20000</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>LK2</t>
+          <t>LTK0</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>TER_B</t>
+          <t>TER_A</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -6137,93 +6175,91 @@
         </is>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>280000</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O2" t="n">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="P2" t="n">
-        <v>100000</v>
+        <v>520000</v>
       </c>
       <c r="Q2" t="n">
-        <v>45</v>
+        <v>287</v>
       </c>
       <c r="R2" t="n">
-        <v>945000</v>
+        <v>5740000</v>
       </c>
       <c r="S2" t="n">
-        <v>1045000</v>
+        <v>6260000</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>90010</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>0.0075</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>46950</v>
       </c>
       <c r="W2" t="n">
-        <v>1045000</v>
+        <v>6123040</v>
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>57043_HERMANTO</t>
-        </is>
-      </c>
-      <c r="Y2" t="n">
-        <v/>
+          <t>57035_MICERI_KARDIAS_DOMINI</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>KSB</t>
+        </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>57043</t>
+          <t>57035</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>HERMANTO</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>109-002-063-2394</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>68.549.095.5-215.000</t>
-        </is>
+          <t>MICERI KARDIAS DOMINI</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v/>
+      </c>
+      <c r="D3" t="n">
+        <v/>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>STORE</t>
+          <t>WELDER T</t>
         </is>
       </c>
       <c r="F3" t="n">
         <v>20000</v>
       </c>
       <c r="G3" t="n">
-        <v>21000</v>
+        <v>20000</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>LK2</t>
+          <t>LTK0</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>TER_B</t>
+          <t>TER_A</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -6244,35 +6280,35 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="P3" t="n">
-        <v>100000</v>
+        <v>520000</v>
       </c>
       <c r="Q3" t="n">
-        <v>45</v>
+        <v>287</v>
       </c>
       <c r="R3" t="n">
-        <v>945000</v>
+        <v>5740000</v>
       </c>
       <c r="S3" t="n">
-        <v>1045000</v>
+        <v>6260000</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>90010</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>0.0075</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>46950</v>
       </c>
       <c r="W3" t="n">
-        <v>1045000</v>
+        <v>6123040</v>
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>57043_HERMANTO</t>
+          <t>57035_MICERI_KARDIAS_DOMINI</t>
         </is>
       </c>
       <c r="Y3" t="n">
@@ -6282,43 +6318,39 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>57043</t>
+          <t>57035</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>HERMANTO</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>109-002-063-2394</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>68.549.095.5-215.000</t>
-        </is>
+          <t>MICERI KARDIAS DOMINI</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v/>
+      </c>
+      <c r="D4" t="n">
+        <v/>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>STORE</t>
+          <t>WELDER T</t>
         </is>
       </c>
       <c r="F4" t="n">
         <v>20000</v>
       </c>
       <c r="G4" t="n">
-        <v>21000</v>
+        <v>20000</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>LK2</t>
+          <t>LTK0</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>TER_B</t>
+          <t>TER_A</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -6327,93 +6359,91 @@
         </is>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>210000</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O4" t="n">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="P4" t="n">
-        <v>100000</v>
+        <v>520000</v>
       </c>
       <c r="Q4" t="n">
-        <v>45</v>
+        <v>287</v>
       </c>
       <c r="R4" t="n">
-        <v>945000</v>
+        <v>5740000</v>
       </c>
       <c r="S4" t="n">
-        <v>1045000</v>
+        <v>6260000</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>90010</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>0.0075</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>46950</v>
       </c>
       <c r="W4" t="n">
-        <v>1045000</v>
+        <v>6123040</v>
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>57043_HERMANTO</t>
-        </is>
-      </c>
-      <c r="Y4" t="n">
-        <v/>
+          <t>57035_MICERI_KARDIAS_DOMINI</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>KSB</t>
+        </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>57043</t>
+          <t>57035</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>HERMANTO</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>109-002-063-2394</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>68.549.095.5-215.000</t>
-        </is>
+          <t>MICERI KARDIAS DOMINI</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v/>
+      </c>
+      <c r="D5" t="n">
+        <v/>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>STORE</t>
+          <t>WELDER T</t>
         </is>
       </c>
       <c r="F5" t="n">
         <v>20000</v>
       </c>
       <c r="G5" t="n">
-        <v>21000</v>
+        <v>20000</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>LK2</t>
+          <t>LTK0</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>TER_B</t>
+          <t>TER_A</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -6422,10 +6452,10 @@
         </is>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -6434,81 +6464,79 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="P5" t="n">
-        <v>100000</v>
+        <v>520000</v>
       </c>
       <c r="Q5" t="n">
-        <v>45</v>
+        <v>287</v>
       </c>
       <c r="R5" t="n">
-        <v>945000</v>
+        <v>5740000</v>
       </c>
       <c r="S5" t="n">
-        <v>1045000</v>
+        <v>6260000</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>90010</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>0.0075</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>46950</v>
       </c>
       <c r="W5" t="n">
-        <v>1045000</v>
+        <v>6123040</v>
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>57043_HERMANTO</t>
-        </is>
-      </c>
-      <c r="Y5" t="n">
-        <v/>
+          <t>57035_MICERI_KARDIAS_DOMINI</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>KSB</t>
+        </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>57043</t>
+          <t>57035</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>HERMANTO</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>109-002-063-2394</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>68.549.095.5-215.000</t>
-        </is>
+          <t>MICERI KARDIAS DOMINI</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v/>
+      </c>
+      <c r="D6" t="n">
+        <v/>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>STORE</t>
+          <t>WELDER T</t>
         </is>
       </c>
       <c r="F6" t="n">
         <v>20000</v>
       </c>
       <c r="G6" t="n">
-        <v>21000</v>
+        <v>20000</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>LK2</t>
+          <t>LTK0</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>TER_B</t>
+          <t>TER_A</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -6517,93 +6545,91 @@
         </is>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>170000</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O6" t="n">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="P6" t="n">
-        <v>100000</v>
+        <v>520000</v>
       </c>
       <c r="Q6" t="n">
-        <v>45</v>
+        <v>287</v>
       </c>
       <c r="R6" t="n">
-        <v>945000</v>
+        <v>5740000</v>
       </c>
       <c r="S6" t="n">
-        <v>1045000</v>
+        <v>6260000</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>90010</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>0.0075</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>46950</v>
       </c>
       <c r="W6" t="n">
-        <v>1045000</v>
+        <v>6123040</v>
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>57043_HERMANTO</t>
-        </is>
-      </c>
-      <c r="Y6" t="n">
-        <v/>
+          <t>57035_MICERI_KARDIAS_DOMINI</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>KSB</t>
+        </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>57043</t>
+          <t>57035</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>HERMANTO</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>109-002-063-2394</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>68.549.095.5-215.000</t>
-        </is>
+          <t>MICERI KARDIAS DOMINI</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v/>
+      </c>
+      <c r="D7" t="n">
+        <v/>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>STORE</t>
+          <t>WELDER T</t>
         </is>
       </c>
       <c r="F7" t="n">
         <v>20000</v>
       </c>
       <c r="G7" t="n">
-        <v>21000</v>
+        <v>20000</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>LK2</t>
+          <t>LTK0</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>TER_B</t>
+          <t>TER_A</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -6612,93 +6638,91 @@
         </is>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>170000</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O7" t="n">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="P7" t="n">
-        <v>100000</v>
+        <v>520000</v>
       </c>
       <c r="Q7" t="n">
-        <v>45</v>
+        <v>287</v>
       </c>
       <c r="R7" t="n">
-        <v>945000</v>
+        <v>5740000</v>
       </c>
       <c r="S7" t="n">
-        <v>1045000</v>
+        <v>6260000</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>90010</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>0.0075</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>46950</v>
       </c>
       <c r="W7" t="n">
-        <v>1045000</v>
+        <v>6123040</v>
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>57043_HERMANTO</t>
-        </is>
-      </c>
-      <c r="Y7" t="n">
-        <v/>
+          <t>57035_MICERI_KARDIAS_DOMINI</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>KSB</t>
+        </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>57043</t>
+          <t>57035</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>HERMANTO</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>109-002-063-2394</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>68.549.095.5-215.000</t>
-        </is>
+          <t>MICERI KARDIAS DOMINI</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v/>
+      </c>
+      <c r="D8" t="n">
+        <v/>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>STORE</t>
+          <t>WELDER T</t>
         </is>
       </c>
       <c r="F8" t="n">
         <v>20000</v>
       </c>
       <c r="G8" t="n">
-        <v>21000</v>
+        <v>20000</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>LK2</t>
+          <t>LTK0</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>TER_B</t>
+          <t>TER_A</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -6707,93 +6731,91 @@
         </is>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>250000</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O8" t="n">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="P8" t="n">
-        <v>100000</v>
+        <v>520000</v>
       </c>
       <c r="Q8" t="n">
-        <v>45</v>
+        <v>287</v>
       </c>
       <c r="R8" t="n">
-        <v>945000</v>
+        <v>5740000</v>
       </c>
       <c r="S8" t="n">
-        <v>1045000</v>
+        <v>6260000</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>90010</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>0.0075</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>46950</v>
       </c>
       <c r="W8" t="n">
-        <v>1045000</v>
+        <v>6123040</v>
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>57043_HERMANTO</t>
-        </is>
-      </c>
-      <c r="Y8" t="n">
-        <v/>
+          <t>57035_MICERI_KARDIAS_DOMINI</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>KSB</t>
+        </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>57043</t>
+          <t>57035</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>HERMANTO</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>109-002-063-2394</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>68.549.095.5-215.000</t>
-        </is>
+          <t>MICERI KARDIAS DOMINI</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v/>
+      </c>
+      <c r="D9" t="n">
+        <v/>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>STORE</t>
+          <t>WELDER T</t>
         </is>
       </c>
       <c r="F9" t="n">
         <v>20000</v>
       </c>
       <c r="G9" t="n">
-        <v>21000</v>
+        <v>20000</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>LK2</t>
+          <t>LTK0</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>TER_B</t>
+          <t>TER_A</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -6802,93 +6824,91 @@
         </is>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>280000</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O9" t="n">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="P9" t="n">
-        <v>100000</v>
+        <v>520000</v>
       </c>
       <c r="Q9" t="n">
-        <v>45</v>
+        <v>287</v>
       </c>
       <c r="R9" t="n">
-        <v>945000</v>
+        <v>5740000</v>
       </c>
       <c r="S9" t="n">
-        <v>1045000</v>
+        <v>6260000</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>90010</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>0.0075</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>46950</v>
       </c>
       <c r="W9" t="n">
-        <v>1045000</v>
+        <v>6123040</v>
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t>57043_HERMANTO</t>
-        </is>
-      </c>
-      <c r="Y9" t="n">
-        <v/>
+          <t>57035_MICERI_KARDIAS_DOMINI</t>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>KSB</t>
+        </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>57043</t>
+          <t>57035</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>HERMANTO</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>109-002-063-2394</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>68.549.095.5-215.000</t>
-        </is>
+          <t>MICERI KARDIAS DOMINI</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v/>
+      </c>
+      <c r="D10" t="n">
+        <v/>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>STORE</t>
+          <t>WELDER T</t>
         </is>
       </c>
       <c r="F10" t="n">
         <v>20000</v>
       </c>
       <c r="G10" t="n">
-        <v>21000</v>
+        <v>20000</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>LK2</t>
+          <t>LTK0</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>TER_B</t>
+          <t>TER_A</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -6897,93 +6917,91 @@
         </is>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>210000</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O10" t="n">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="P10" t="n">
-        <v>100000</v>
+        <v>520000</v>
       </c>
       <c r="Q10" t="n">
-        <v>45</v>
+        <v>287</v>
       </c>
       <c r="R10" t="n">
-        <v>945000</v>
+        <v>5740000</v>
       </c>
       <c r="S10" t="n">
-        <v>1045000</v>
+        <v>6260000</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>90010</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>0.0075</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>46950</v>
       </c>
       <c r="W10" t="n">
-        <v>1045000</v>
+        <v>6123040</v>
       </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t>57043_HERMANTO</t>
-        </is>
-      </c>
-      <c r="Y10" t="n">
-        <v/>
+          <t>57035_MICERI_KARDIAS_DOMINI</t>
+        </is>
+      </c>
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>KSB</t>
+        </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>57043</t>
+          <t>57035</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>HERMANTO</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>109-002-063-2394</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>68.549.095.5-215.000</t>
-        </is>
+          <t>MICERI KARDIAS DOMINI</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v/>
+      </c>
+      <c r="D11" t="n">
+        <v/>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>STORE</t>
+          <t>WELDER T</t>
         </is>
       </c>
       <c r="F11" t="n">
         <v>20000</v>
       </c>
       <c r="G11" t="n">
-        <v>21000</v>
+        <v>20000</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>LK2</t>
+          <t>LTK0</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>TER_B</t>
+          <t>TER_A</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -6992,93 +7010,91 @@
         </is>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>170000</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O11" t="n">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="P11" t="n">
-        <v>100000</v>
+        <v>520000</v>
       </c>
       <c r="Q11" t="n">
-        <v>45</v>
+        <v>287</v>
       </c>
       <c r="R11" t="n">
-        <v>945000</v>
+        <v>5740000</v>
       </c>
       <c r="S11" t="n">
-        <v>1045000</v>
+        <v>6260000</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>90010</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>0.0075</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>46950</v>
       </c>
       <c r="W11" t="n">
-        <v>1045000</v>
+        <v>6123040</v>
       </c>
       <c r="X11" t="inlineStr">
         <is>
-          <t>57043_HERMANTO</t>
-        </is>
-      </c>
-      <c r="Y11" t="n">
-        <v/>
+          <t>57035_MICERI_KARDIAS_DOMINI</t>
+        </is>
+      </c>
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>KSB</t>
+        </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>57043</t>
+          <t>57035</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>HERMANTO</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>109-002-063-2394</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>68.549.095.5-215.000</t>
-        </is>
+          <t>MICERI KARDIAS DOMINI</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v/>
+      </c>
+      <c r="D12" t="n">
+        <v/>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>STORE</t>
+          <t>WELDER T</t>
         </is>
       </c>
       <c r="F12" t="n">
         <v>20000</v>
       </c>
       <c r="G12" t="n">
-        <v>21000</v>
+        <v>20000</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>LK2</t>
+          <t>LTK0</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>TER_B</t>
+          <t>TER_A</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -7087,93 +7103,91 @@
         </is>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>210000</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O12" t="n">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="P12" t="n">
-        <v>100000</v>
+        <v>520000</v>
       </c>
       <c r="Q12" t="n">
-        <v>45</v>
+        <v>287</v>
       </c>
       <c r="R12" t="n">
-        <v>945000</v>
+        <v>5740000</v>
       </c>
       <c r="S12" t="n">
-        <v>1045000</v>
+        <v>6260000</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>90010</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>0.0075</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>46950</v>
       </c>
       <c r="W12" t="n">
-        <v>1045000</v>
+        <v>6123040</v>
       </c>
       <c r="X12" t="inlineStr">
         <is>
-          <t>57043_HERMANTO</t>
-        </is>
-      </c>
-      <c r="Y12" t="n">
-        <v/>
+          <t>57035_MICERI_KARDIAS_DOMINI</t>
+        </is>
+      </c>
+      <c r="Y12" t="inlineStr">
+        <is>
+          <t>KSB</t>
+        </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>57043</t>
+          <t>57035</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>HERMANTO</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>109-002-063-2394</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>68.549.095.5-215.000</t>
-        </is>
+          <t>MICERI KARDIAS DOMINI</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v/>
+      </c>
+      <c r="D13" t="n">
+        <v/>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>STORE</t>
+          <t>WELDER T</t>
         </is>
       </c>
       <c r="F13" t="n">
         <v>20000</v>
       </c>
       <c r="G13" t="n">
-        <v>21000</v>
+        <v>20000</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>LK2</t>
+          <t>LTK0</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>TER_B</t>
+          <t>TER_A</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -7182,93 +7196,91 @@
         </is>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>210000</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O13" t="n">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="P13" t="n">
-        <v>100000</v>
+        <v>520000</v>
       </c>
       <c r="Q13" t="n">
-        <v>45</v>
+        <v>287</v>
       </c>
       <c r="R13" t="n">
-        <v>945000</v>
+        <v>5740000</v>
       </c>
       <c r="S13" t="n">
-        <v>1045000</v>
+        <v>6260000</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>90010</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>0.0075</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>46950</v>
       </c>
       <c r="W13" t="n">
-        <v>1045000</v>
+        <v>6123040</v>
       </c>
       <c r="X13" t="inlineStr">
         <is>
-          <t>57043_HERMANTO</t>
-        </is>
-      </c>
-      <c r="Y13" t="n">
-        <v/>
+          <t>57035_MICERI_KARDIAS_DOMINI</t>
+        </is>
+      </c>
+      <c r="Y13" t="inlineStr">
+        <is>
+          <t>KSB</t>
+        </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>57043</t>
+          <t>57035</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>HERMANTO</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>109-002-063-2394</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>68.549.095.5-215.000</t>
-        </is>
+          <t>MICERI KARDIAS DOMINI</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v/>
+      </c>
+      <c r="D14" t="n">
+        <v/>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>STORE</t>
+          <t>WELDER T</t>
         </is>
       </c>
       <c r="F14" t="n">
         <v>20000</v>
       </c>
       <c r="G14" t="n">
-        <v>21000</v>
+        <v>20000</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>LK2</t>
+          <t>LTK0</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>TER_B</t>
+          <t>TER_A</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -7277,93 +7289,91 @@
         </is>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>170000</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O14" t="n">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="P14" t="n">
-        <v>100000</v>
+        <v>520000</v>
       </c>
       <c r="Q14" t="n">
-        <v>45</v>
+        <v>287</v>
       </c>
       <c r="R14" t="n">
-        <v>945000</v>
+        <v>5740000</v>
       </c>
       <c r="S14" t="n">
-        <v>1045000</v>
+        <v>6260000</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>90010</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>0.0075</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>46950</v>
       </c>
       <c r="W14" t="n">
-        <v>1045000</v>
+        <v>6123040</v>
       </c>
       <c r="X14" t="inlineStr">
         <is>
-          <t>57043_HERMANTO</t>
-        </is>
-      </c>
-      <c r="Y14" t="n">
-        <v/>
+          <t>57035_MICERI_KARDIAS_DOMINI</t>
+        </is>
+      </c>
+      <c r="Y14" t="inlineStr">
+        <is>
+          <t>KSB</t>
+        </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>57043</t>
+          <t>57035</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>HERMANTO</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>109-002-063-2394</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>68.549.095.5-215.000</t>
-        </is>
+          <t>MICERI KARDIAS DOMINI</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v/>
+      </c>
+      <c r="D15" t="n">
+        <v/>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>STORE</t>
+          <t>WELDER T</t>
         </is>
       </c>
       <c r="F15" t="n">
         <v>20000</v>
       </c>
       <c r="G15" t="n">
-        <v>21000</v>
+        <v>20000</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>LK2</t>
+          <t>LTK0</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>TER_B</t>
+          <t>TER_A</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -7372,93 +7382,91 @@
         </is>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>170000</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O15" t="n">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="P15" t="n">
-        <v>100000</v>
+        <v>520000</v>
       </c>
       <c r="Q15" t="n">
-        <v>45</v>
+        <v>287</v>
       </c>
       <c r="R15" t="n">
-        <v>945000</v>
+        <v>5740000</v>
       </c>
       <c r="S15" t="n">
-        <v>1045000</v>
+        <v>6260000</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>90010</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>0.0075</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>46950</v>
       </c>
       <c r="W15" t="n">
-        <v>1045000</v>
+        <v>6123040</v>
       </c>
       <c r="X15" t="inlineStr">
         <is>
-          <t>57043_HERMANTO</t>
-        </is>
-      </c>
-      <c r="Y15" t="n">
-        <v/>
+          <t>57035_MICERI_KARDIAS_DOMINI</t>
+        </is>
+      </c>
+      <c r="Y15" t="inlineStr">
+        <is>
+          <t>KSB</t>
+        </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>57043</t>
+          <t>57035</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>HERMANTO</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>109-002-063-2394</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>68.549.095.5-215.000</t>
-        </is>
+          <t>MICERI KARDIAS DOMINI</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v/>
+      </c>
+      <c r="D16" t="n">
+        <v/>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>STORE</t>
+          <t>WELDER T</t>
         </is>
       </c>
       <c r="F16" t="n">
         <v>20000</v>
       </c>
       <c r="G16" t="n">
-        <v>21000</v>
+        <v>20000</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>LK2</t>
+          <t>LTK0</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>TER_B</t>
+          <t>TER_A</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -7467,93 +7475,91 @@
         </is>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>280000</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O16" t="n">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="P16" t="n">
-        <v>100000</v>
+        <v>520000</v>
       </c>
       <c r="Q16" t="n">
-        <v>45</v>
+        <v>287</v>
       </c>
       <c r="R16" t="n">
-        <v>945000</v>
+        <v>5740000</v>
       </c>
       <c r="S16" t="n">
-        <v>1045000</v>
+        <v>6260000</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>90010</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>0.0075</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>46950</v>
       </c>
       <c r="W16" t="n">
-        <v>1045000</v>
+        <v>6123040</v>
       </c>
       <c r="X16" t="inlineStr">
         <is>
-          <t>57043_HERMANTO</t>
-        </is>
-      </c>
-      <c r="Y16" t="n">
-        <v/>
+          <t>57035_MICERI_KARDIAS_DOMINI</t>
+        </is>
+      </c>
+      <c r="Y16" t="inlineStr">
+        <is>
+          <t>KSB</t>
+        </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>57043</t>
+          <t>57035</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>HERMANTO</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>109-002-063-2394</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>68.549.095.5-215.000</t>
-        </is>
+          <t>MICERI KARDIAS DOMINI</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v/>
+      </c>
+      <c r="D17" t="n">
+        <v/>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>STORE</t>
+          <t>WELDER T</t>
         </is>
       </c>
       <c r="F17" t="n">
         <v>20000</v>
       </c>
       <c r="G17" t="n">
-        <v>21000</v>
+        <v>20000</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>LK2</t>
+          <t>LTK0</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>TER_B</t>
+          <t>TER_A</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -7574,35 +7580,35 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="P17" t="n">
-        <v>100000</v>
+        <v>520000</v>
       </c>
       <c r="Q17" t="n">
-        <v>45</v>
+        <v>287</v>
       </c>
       <c r="R17" t="n">
-        <v>945000</v>
+        <v>5740000</v>
       </c>
       <c r="S17" t="n">
-        <v>1045000</v>
+        <v>6260000</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>90010</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>0.0075</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>46950</v>
       </c>
       <c r="W17" t="n">
-        <v>1045000</v>
+        <v>6123040</v>
       </c>
       <c r="X17" t="inlineStr">
         <is>
-          <t>57043_HERMANTO</t>
+          <t>57035_MICERI_KARDIAS_DOMINI</t>
         </is>
       </c>
       <c r="Y17" t="n">
@@ -7612,43 +7618,39 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>57043</t>
+          <t>57035</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>HERMANTO</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>109-002-063-2394</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>68.549.095.5-215.000</t>
-        </is>
+          <t>MICERI KARDIAS DOMINI</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v/>
+      </c>
+      <c r="D18" t="n">
+        <v/>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>STORE</t>
+          <t>WELDER T</t>
         </is>
       </c>
       <c r="F18" t="n">
         <v>20000</v>
       </c>
       <c r="G18" t="n">
-        <v>21000</v>
+        <v>20000</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>LK2</t>
+          <t>LTK0</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>TER_B</t>
+          <t>TER_A</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -7657,93 +7659,91 @@
         </is>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>210000</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O18" t="n">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="P18" t="n">
-        <v>100000</v>
+        <v>520000</v>
       </c>
       <c r="Q18" t="n">
-        <v>45</v>
+        <v>287</v>
       </c>
       <c r="R18" t="n">
-        <v>945000</v>
+        <v>5740000</v>
       </c>
       <c r="S18" t="n">
-        <v>1045000</v>
+        <v>6260000</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>90010</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>0.0075</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>46950</v>
       </c>
       <c r="W18" t="n">
-        <v>1045000</v>
+        <v>6123040</v>
       </c>
       <c r="X18" t="inlineStr">
         <is>
-          <t>57043_HERMANTO</t>
-        </is>
-      </c>
-      <c r="Y18" t="n">
-        <v/>
+          <t>57035_MICERI_KARDIAS_DOMINI</t>
+        </is>
+      </c>
+      <c r="Y18" t="inlineStr">
+        <is>
+          <t>KSB</t>
+        </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>57043</t>
+          <t>57035</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>HERMANTO</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>109-002-063-2394</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>68.549.095.5-215.000</t>
-        </is>
+          <t>MICERI KARDIAS DOMINI</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v/>
+      </c>
+      <c r="D19" t="n">
+        <v/>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>STORE</t>
+          <t>WELDER T</t>
         </is>
       </c>
       <c r="F19" t="n">
         <v>20000</v>
       </c>
       <c r="G19" t="n">
-        <v>21000</v>
+        <v>20000</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>LK2</t>
+          <t>LTK0</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>TER_B</t>
+          <t>TER_A</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -7752,10 +7752,10 @@
         </is>
       </c>
       <c r="K19" t="n">
-        <v>7</v>
+        <v>10.5</v>
       </c>
       <c r="L19" t="n">
-        <v>147000</v>
+        <v>210000</v>
       </c>
       <c r="M19" t="n">
         <v>20000</v>
@@ -7764,35 +7764,35 @@
         <v>1</v>
       </c>
       <c r="O19" t="n">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="P19" t="n">
-        <v>100000</v>
+        <v>520000</v>
       </c>
       <c r="Q19" t="n">
-        <v>45</v>
+        <v>287</v>
       </c>
       <c r="R19" t="n">
-        <v>945000</v>
+        <v>5740000</v>
       </c>
       <c r="S19" t="n">
-        <v>1045000</v>
+        <v>6260000</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>90010</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>0.0075</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>46950</v>
       </c>
       <c r="W19" t="n">
-        <v>1045000</v>
+        <v>6123040</v>
       </c>
       <c r="X19" t="inlineStr">
         <is>
-          <t>57043_HERMANTO</t>
+          <t>57035_MICERI_KARDIAS_DOMINI</t>
         </is>
       </c>
       <c r="Y19" t="inlineStr">
@@ -7804,43 +7804,39 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>57043</t>
+          <t>57035</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>HERMANTO</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>109-002-063-2394</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>68.549.095.5-215.000</t>
-        </is>
+          <t>MICERI KARDIAS DOMINI</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v/>
+      </c>
+      <c r="D20" t="n">
+        <v/>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>STORE</t>
+          <t>WELDER T</t>
         </is>
       </c>
       <c r="F20" t="n">
         <v>20000</v>
       </c>
       <c r="G20" t="n">
-        <v>21000</v>
+        <v>20000</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>LK2</t>
+          <t>LTK0</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>TER_B</t>
+          <t>TER_A</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -7849,10 +7845,10 @@
         </is>
       </c>
       <c r="K20" t="n">
-        <v>8.5</v>
+        <v>10.5</v>
       </c>
       <c r="L20" t="n">
-        <v>178500</v>
+        <v>210000</v>
       </c>
       <c r="M20" t="n">
         <v>20000</v>
@@ -7861,35 +7857,35 @@
         <v>1</v>
       </c>
       <c r="O20" t="n">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="P20" t="n">
-        <v>100000</v>
+        <v>520000</v>
       </c>
       <c r="Q20" t="n">
-        <v>45</v>
+        <v>287</v>
       </c>
       <c r="R20" t="n">
-        <v>945000</v>
+        <v>5740000</v>
       </c>
       <c r="S20" t="n">
-        <v>1045000</v>
+        <v>6260000</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>90010</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>0.0075</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>46950</v>
       </c>
       <c r="W20" t="n">
-        <v>1045000</v>
+        <v>6123040</v>
       </c>
       <c r="X20" t="inlineStr">
         <is>
-          <t>57043_HERMANTO</t>
+          <t>57035_MICERI_KARDIAS_DOMINI</t>
         </is>
       </c>
       <c r="Y20" t="inlineStr">
@@ -7901,43 +7897,39 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>57043</t>
+          <t>57035</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>HERMANTO</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>109-002-063-2394</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>68.549.095.5-215.000</t>
-        </is>
+          <t>MICERI KARDIAS DOMINI</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v/>
+      </c>
+      <c r="D21" t="n">
+        <v/>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>STORE</t>
+          <t>WELDER T</t>
         </is>
       </c>
       <c r="F21" t="n">
         <v>20000</v>
       </c>
       <c r="G21" t="n">
-        <v>21000</v>
+        <v>20000</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>LK2</t>
+          <t>LTK0</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>TER_B</t>
+          <t>TER_A</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -7946,10 +7938,10 @@
         </is>
       </c>
       <c r="K21" t="n">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="L21" t="n">
-        <v>147000</v>
+        <v>170000</v>
       </c>
       <c r="M21" t="n">
         <v>20000</v>
@@ -7958,35 +7950,35 @@
         <v>1</v>
       </c>
       <c r="O21" t="n">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="P21" t="n">
-        <v>100000</v>
+        <v>520000</v>
       </c>
       <c r="Q21" t="n">
-        <v>45</v>
+        <v>287</v>
       </c>
       <c r="R21" t="n">
-        <v>945000</v>
+        <v>5740000</v>
       </c>
       <c r="S21" t="n">
-        <v>1045000</v>
+        <v>6260000</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>90010</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>0.0075</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>46950</v>
       </c>
       <c r="W21" t="n">
-        <v>1045000</v>
+        <v>6123040</v>
       </c>
       <c r="X21" t="inlineStr">
         <is>
-          <t>57043_HERMANTO</t>
+          <t>57035_MICERI_KARDIAS_DOMINI</t>
         </is>
       </c>
       <c r="Y21" t="inlineStr">
@@ -7998,43 +7990,39 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>57043</t>
+          <t>57035</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>HERMANTO</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>109-002-063-2394</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>68.549.095.5-215.000</t>
-        </is>
+          <t>MICERI KARDIAS DOMINI</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v/>
+      </c>
+      <c r="D22" t="n">
+        <v/>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>STORE</t>
+          <t>WELDER T</t>
         </is>
       </c>
       <c r="F22" t="n">
         <v>20000</v>
       </c>
       <c r="G22" t="n">
-        <v>21000</v>
+        <v>20000</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>LK2</t>
+          <t>LTK0</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>TER_B</t>
+          <t>TER_A</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -8043,10 +8031,10 @@
         </is>
       </c>
       <c r="K22" t="n">
-        <v>10.5</v>
+        <v>12.5</v>
       </c>
       <c r="L22" t="n">
-        <v>220500</v>
+        <v>250000</v>
       </c>
       <c r="M22" t="n">
         <v>20000</v>
@@ -8055,35 +8043,35 @@
         <v>1</v>
       </c>
       <c r="O22" t="n">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="P22" t="n">
-        <v>100000</v>
+        <v>520000</v>
       </c>
       <c r="Q22" t="n">
-        <v>45</v>
+        <v>287</v>
       </c>
       <c r="R22" t="n">
-        <v>945000</v>
+        <v>5740000</v>
       </c>
       <c r="S22" t="n">
-        <v>1045000</v>
+        <v>6260000</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>90010</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>0.0075</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>46950</v>
       </c>
       <c r="W22" t="n">
-        <v>1045000</v>
+        <v>6123040</v>
       </c>
       <c r="X22" t="inlineStr">
         <is>
-          <t>57043_HERMANTO</t>
+          <t>57035_MICERI_KARDIAS_DOMINI</t>
         </is>
       </c>
       <c r="Y22" t="inlineStr">
@@ -8095,43 +8083,39 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>57043</t>
+          <t>57035</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>HERMANTO</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>109-002-063-2394</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>68.549.095.5-215.000</t>
-        </is>
+          <t>MICERI KARDIAS DOMINI</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v/>
+      </c>
+      <c r="D23" t="n">
+        <v/>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>STORE</t>
+          <t>WELDER T</t>
         </is>
       </c>
       <c r="F23" t="n">
         <v>20000</v>
       </c>
       <c r="G23" t="n">
-        <v>21000</v>
+        <v>20000</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>LK2</t>
+          <t>LTK0</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>TER_B</t>
+          <t>TER_A</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -8140,10 +8124,10 @@
         </is>
       </c>
       <c r="K23" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L23" t="n">
-        <v>252000</v>
+        <v>280000</v>
       </c>
       <c r="M23" t="n">
         <v>20000</v>
@@ -8152,35 +8136,35 @@
         <v>1</v>
       </c>
       <c r="O23" t="n">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="P23" t="n">
-        <v>100000</v>
+        <v>520000</v>
       </c>
       <c r="Q23" t="n">
-        <v>45</v>
+        <v>287</v>
       </c>
       <c r="R23" t="n">
-        <v>945000</v>
+        <v>5740000</v>
       </c>
       <c r="S23" t="n">
-        <v>1045000</v>
+        <v>6260000</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>90010</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>0.0075</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>46950</v>
       </c>
       <c r="W23" t="n">
-        <v>1045000</v>
+        <v>6123040</v>
       </c>
       <c r="X23" t="inlineStr">
         <is>
-          <t>57043_HERMANTO</t>
+          <t>57035_MICERI_KARDIAS_DOMINI</t>
         </is>
       </c>
       <c r="Y23" t="inlineStr">
@@ -8192,43 +8176,39 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>57043</t>
+          <t>57035</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>HERMANTO</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>109-002-063-2394</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>68.549.095.5-215.000</t>
-        </is>
+          <t>MICERI KARDIAS DOMINI</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v/>
+      </c>
+      <c r="D24" t="n">
+        <v/>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>STORE</t>
+          <t>WELDER T</t>
         </is>
       </c>
       <c r="F24" t="n">
         <v>20000</v>
       </c>
       <c r="G24" t="n">
-        <v>21000</v>
+        <v>20000</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>LK2</t>
+          <t>LTK0</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>TER_B</t>
+          <t>TER_A</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -8237,93 +8217,91 @@
         </is>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>210000</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O24" t="n">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="P24" t="n">
-        <v>100000</v>
+        <v>520000</v>
       </c>
       <c r="Q24" t="n">
-        <v>45</v>
+        <v>287</v>
       </c>
       <c r="R24" t="n">
-        <v>945000</v>
+        <v>5740000</v>
       </c>
       <c r="S24" t="n">
-        <v>1045000</v>
+        <v>6260000</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>90010</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>0.0075</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>46950</v>
       </c>
       <c r="W24" t="n">
-        <v>1045000</v>
+        <v>6123040</v>
       </c>
       <c r="X24" t="inlineStr">
         <is>
-          <t>57043_HERMANTO</t>
-        </is>
-      </c>
-      <c r="Y24" t="n">
-        <v/>
+          <t>57035_MICERI_KARDIAS_DOMINI</t>
+        </is>
+      </c>
+      <c r="Y24" t="inlineStr">
+        <is>
+          <t>KSB</t>
+        </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>57043</t>
+          <t>57035</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>HERMANTO</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>109-002-063-2394</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>68.549.095.5-215.000</t>
-        </is>
+          <t>MICERI KARDIAS DOMINI</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v/>
+      </c>
+      <c r="D25" t="n">
+        <v/>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>STORE</t>
+          <t>WELDER T</t>
         </is>
       </c>
       <c r="F25" t="n">
         <v>20000</v>
       </c>
       <c r="G25" t="n">
-        <v>21000</v>
+        <v>20000</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>LK2</t>
+          <t>LTK0</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>TER_B</t>
+          <t>TER_A</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -8332,93 +8310,91 @@
         </is>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>210000</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O25" t="n">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="P25" t="n">
-        <v>100000</v>
+        <v>520000</v>
       </c>
       <c r="Q25" t="n">
-        <v>45</v>
+        <v>287</v>
       </c>
       <c r="R25" t="n">
-        <v>945000</v>
+        <v>5740000</v>
       </c>
       <c r="S25" t="n">
-        <v>1045000</v>
+        <v>6260000</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>90010</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>0.0075</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>46950</v>
       </c>
       <c r="W25" t="n">
-        <v>1045000</v>
+        <v>6123040</v>
       </c>
       <c r="X25" t="inlineStr">
         <is>
-          <t>57043_HERMANTO</t>
-        </is>
-      </c>
-      <c r="Y25" t="n">
-        <v/>
+          <t>57035_MICERI_KARDIAS_DOMINI</t>
+        </is>
+      </c>
+      <c r="Y25" t="inlineStr">
+        <is>
+          <t>KSB</t>
+        </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>57043</t>
+          <t>57035</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>HERMANTO</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>109-002-063-2394</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>68.549.095.5-215.000</t>
-        </is>
+          <t>MICERI KARDIAS DOMINI</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v/>
+      </c>
+      <c r="D26" t="n">
+        <v/>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>STORE</t>
+          <t>WELDER T</t>
         </is>
       </c>
       <c r="F26" t="n">
         <v>20000</v>
       </c>
       <c r="G26" t="n">
-        <v>21000</v>
+        <v>20000</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>LK2</t>
+          <t>LTK0</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>TER_B</t>
+          <t>TER_A</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -8427,93 +8403,91 @@
         </is>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>210000</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O26" t="n">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="P26" t="n">
-        <v>100000</v>
+        <v>520000</v>
       </c>
       <c r="Q26" t="n">
-        <v>45</v>
+        <v>287</v>
       </c>
       <c r="R26" t="n">
-        <v>945000</v>
+        <v>5740000</v>
       </c>
       <c r="S26" t="n">
-        <v>1045000</v>
+        <v>6260000</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>90010</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>0.0075</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>46950</v>
       </c>
       <c r="W26" t="n">
-        <v>1045000</v>
+        <v>6123040</v>
       </c>
       <c r="X26" t="inlineStr">
         <is>
-          <t>57043_HERMANTO</t>
-        </is>
-      </c>
-      <c r="Y26" t="n">
-        <v/>
+          <t>57035_MICERI_KARDIAS_DOMINI</t>
+        </is>
+      </c>
+      <c r="Y26" t="inlineStr">
+        <is>
+          <t>KSB</t>
+        </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>57043</t>
+          <t>57035</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>HERMANTO</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>109-002-063-2394</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>68.549.095.5-215.000</t>
-        </is>
+          <t>MICERI KARDIAS DOMINI</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v/>
+      </c>
+      <c r="D27" t="n">
+        <v/>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>STORE</t>
+          <t>WELDER T</t>
         </is>
       </c>
       <c r="F27" t="n">
         <v>20000</v>
       </c>
       <c r="G27" t="n">
-        <v>21000</v>
+        <v>20000</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>LK2</t>
+          <t>LTK0</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>TER_B</t>
+          <t>TER_A</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -8534,35 +8508,35 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="P27" t="n">
-        <v>100000</v>
+        <v>520000</v>
       </c>
       <c r="Q27" t="n">
-        <v>45</v>
+        <v>287</v>
       </c>
       <c r="R27" t="n">
-        <v>945000</v>
+        <v>5740000</v>
       </c>
       <c r="S27" t="n">
-        <v>1045000</v>
+        <v>6260000</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>90010</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>0.0075</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>46950</v>
       </c>
       <c r="W27" t="n">
-        <v>1045000</v>
+        <v>6123040</v>
       </c>
       <c r="X27" t="inlineStr">
         <is>
-          <t>57043_HERMANTO</t>
+          <t>57035_MICERI_KARDIAS_DOMINI</t>
         </is>
       </c>
       <c r="Y27" t="n">
@@ -8572,43 +8546,39 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>57043</t>
+          <t>57035</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>HERMANTO</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>109-002-063-2394</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>68.549.095.5-215.000</t>
-        </is>
+          <t>MICERI KARDIAS DOMINI</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v/>
+      </c>
+      <c r="D28" t="n">
+        <v/>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>STORE</t>
+          <t>WELDER T</t>
         </is>
       </c>
       <c r="F28" t="n">
         <v>20000</v>
       </c>
       <c r="G28" t="n">
-        <v>21000</v>
+        <v>20000</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>LK2</t>
+          <t>LTK0</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>TER_B</t>
+          <t>TER_A</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -8617,93 +8587,91 @@
         </is>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>230000</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O28" t="n">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="P28" t="n">
-        <v>100000</v>
+        <v>520000</v>
       </c>
       <c r="Q28" t="n">
-        <v>45</v>
+        <v>287</v>
       </c>
       <c r="R28" t="n">
-        <v>945000</v>
+        <v>5740000</v>
       </c>
       <c r="S28" t="n">
-        <v>1045000</v>
+        <v>6260000</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>90010</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>0.0075</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>46950</v>
       </c>
       <c r="W28" t="n">
-        <v>1045000</v>
+        <v>6123040</v>
       </c>
       <c r="X28" t="inlineStr">
         <is>
-          <t>57043_HERMANTO</t>
-        </is>
-      </c>
-      <c r="Y28" t="n">
-        <v/>
+          <t>57035_MICERI_KARDIAS_DOMINI</t>
+        </is>
+      </c>
+      <c r="Y28" t="inlineStr">
+        <is>
+          <t>KSB</t>
+        </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>57043</t>
+          <t>57035</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>HERMANTO</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>109-002-063-2394</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>68.549.095.5-215.000</t>
-        </is>
+          <t>MICERI KARDIAS DOMINI</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v/>
+      </c>
+      <c r="D29" t="n">
+        <v/>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>STORE</t>
+          <t>WELDER T</t>
         </is>
       </c>
       <c r="F29" t="n">
         <v>20000</v>
       </c>
       <c r="G29" t="n">
-        <v>21000</v>
+        <v>20000</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>LK2</t>
+          <t>LTK0</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>TER_B</t>
+          <t>TER_A</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -8712,93 +8680,91 @@
         </is>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>230000</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O29" t="n">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="P29" t="n">
-        <v>100000</v>
+        <v>520000</v>
       </c>
       <c r="Q29" t="n">
-        <v>45</v>
+        <v>287</v>
       </c>
       <c r="R29" t="n">
-        <v>945000</v>
+        <v>5740000</v>
       </c>
       <c r="S29" t="n">
-        <v>1045000</v>
+        <v>6260000</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>90010</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>0.0075</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>46950</v>
       </c>
       <c r="W29" t="n">
-        <v>1045000</v>
+        <v>6123040</v>
       </c>
       <c r="X29" t="inlineStr">
         <is>
-          <t>57043_HERMANTO</t>
-        </is>
-      </c>
-      <c r="Y29" t="n">
-        <v/>
+          <t>57035_MICERI_KARDIAS_DOMINI</t>
+        </is>
+      </c>
+      <c r="Y29" t="inlineStr">
+        <is>
+          <t>KSB</t>
+        </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>57043</t>
+          <t>57035</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>HERMANTO</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>109-002-063-2394</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>68.549.095.5-215.000</t>
-        </is>
+          <t>MICERI KARDIAS DOMINI</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v/>
+      </c>
+      <c r="D30" t="n">
+        <v/>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>STORE</t>
+          <t>WELDER T</t>
         </is>
       </c>
       <c r="F30" t="n">
         <v>20000</v>
       </c>
       <c r="G30" t="n">
-        <v>21000</v>
+        <v>20000</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>LK2</t>
+          <t>LTK0</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>TER_B</t>
+          <t>TER_A</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -8807,93 +8773,91 @@
         </is>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>280000</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O30" t="n">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="P30" t="n">
-        <v>100000</v>
+        <v>520000</v>
       </c>
       <c r="Q30" t="n">
-        <v>45</v>
+        <v>287</v>
       </c>
       <c r="R30" t="n">
-        <v>945000</v>
+        <v>5740000</v>
       </c>
       <c r="S30" t="n">
-        <v>1045000</v>
+        <v>6260000</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>90010</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>0.0075</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>46950</v>
       </c>
       <c r="W30" t="n">
-        <v>1045000</v>
+        <v>6123040</v>
       </c>
       <c r="X30" t="inlineStr">
         <is>
-          <t>57043_HERMANTO</t>
-        </is>
-      </c>
-      <c r="Y30" t="n">
-        <v/>
+          <t>57035_MICERI_KARDIAS_DOMINI</t>
+        </is>
+      </c>
+      <c r="Y30" t="inlineStr">
+        <is>
+          <t>KSB</t>
+        </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>57043</t>
+          <t>57035</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>HERMANTO</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>109-002-063-2394</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>68.549.095.5-215.000</t>
-        </is>
+          <t>MICERI KARDIAS DOMINI</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v/>
+      </c>
+      <c r="D31" t="n">
+        <v/>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>STORE</t>
+          <t>WELDER T</t>
         </is>
       </c>
       <c r="F31" t="n">
         <v>20000</v>
       </c>
       <c r="G31" t="n">
-        <v>21000</v>
+        <v>20000</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>LK2</t>
+          <t>LTK0</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>TER_B</t>
+          <t>TER_A</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -8902,51 +8866,53 @@
         </is>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>210000</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O31" t="n">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="P31" t="n">
-        <v>100000</v>
+        <v>520000</v>
       </c>
       <c r="Q31" t="n">
-        <v>45</v>
+        <v>287</v>
       </c>
       <c r="R31" t="n">
-        <v>945000</v>
+        <v>5740000</v>
       </c>
       <c r="S31" t="n">
-        <v>1045000</v>
+        <v>6260000</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>90010</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>0.0075</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>46950</v>
       </c>
       <c r="W31" t="n">
-        <v>1045000</v>
+        <v>6123040</v>
       </c>
       <c r="X31" t="inlineStr">
         <is>
-          <t>57043_HERMANTO</t>
-        </is>
-      </c>
-      <c r="Y31" t="n">
-        <v/>
+          <t>57035_MICERI_KARDIAS_DOMINI</t>
+        </is>
+      </c>
+      <c r="Y31" t="inlineStr">
+        <is>
+          <t>KSB</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -9034,7 +9000,7 @@
       </c>
       <c r="H4" s="17" t="inlineStr">
         <is>
-          <t>57043</t>
+          <t>57035</t>
         </is>
       </c>
     </row>
@@ -9046,16 +9012,16 @@
       </c>
       <c r="B5" s="5" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>07:30</t>
         </is>
       </c>
       <c r="C5" s="5" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
@@ -9069,7 +9035,7 @@
       </c>
       <c r="H5" s="6" t="inlineStr">
         <is>
-          <t>HERMANTO</t>
+          <t>MICERI KARDIAS DOMINI</t>
         </is>
       </c>
     </row>
@@ -9104,7 +9070,7 @@
       </c>
       <c r="H6" s="15" t="inlineStr">
         <is>
-          <t>STORE</t>
+          <t>WELDER T</t>
         </is>
       </c>
     </row>
@@ -9116,16 +9082,16 @@
       </c>
       <c r="B7" s="5" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>07:30</t>
         </is>
       </c>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>17:30</t>
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
@@ -9139,7 +9105,7 @@
       </c>
       <c r="H7" s="15" t="inlineStr">
         <is>
-          <t>LK2</t>
+          <t>LTK0</t>
         </is>
       </c>
     </row>
@@ -9151,16 +9117,16 @@
       </c>
       <c r="B8" s="5" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>07:30</t>
         </is>
       </c>
       <c r="C8" s="5" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
@@ -9172,10 +9138,8 @@
           <t>:</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>68.549.095.5-215.000</t>
-        </is>
+      <c r="H8" t="n">
+        <v/>
       </c>
     </row>
     <row r="9">
@@ -9186,16 +9150,16 @@
       </c>
       <c r="B9" s="5" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>07:30</t>
         </is>
       </c>
       <c r="C9" s="5" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>17:30</t>
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
@@ -9221,16 +9185,16 @@
       </c>
       <c r="B10" s="5" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>07:30</t>
         </is>
       </c>
       <c r="C10" s="5" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>17:30</t>
         </is>
       </c>
       <c r="D10" s="5" t="n">
-        <v>0</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="11">
@@ -9241,16 +9205,16 @@
       </c>
       <c r="B11" s="5" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>07:30</t>
         </is>
       </c>
       <c r="C11" s="5" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>17:30</t>
         </is>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
@@ -9263,7 +9227,7 @@
         </is>
       </c>
       <c r="H11" s="18" t="n">
-        <v>45</v>
+        <v>287</v>
       </c>
     </row>
     <row r="12">
@@ -9274,16 +9238,16 @@
       </c>
       <c r="B12" s="5" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>07:30</t>
         </is>
       </c>
       <c r="C12" s="5" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13">
@@ -9294,16 +9258,16 @@
       </c>
       <c r="B13" s="5" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>07:30</t>
         </is>
       </c>
       <c r="C13" s="5" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>17:30</t>
         </is>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
@@ -9319,16 +9283,16 @@
       </c>
       <c r="B14" s="5" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>07:30</t>
         </is>
       </c>
       <c r="C14" s="5" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>17:30</t>
         </is>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="F14" s="15" t="inlineStr">
         <is>
@@ -9336,11 +9300,11 @@
         </is>
       </c>
       <c r="G14" s="15" t="n">
-        <v>45</v>
+        <v>287</v>
       </c>
       <c r="H14" s="15" t="n"/>
       <c r="I14" s="7" t="n">
-        <v>21000</v>
+        <v>20000</v>
       </c>
       <c r="J14" s="15" t="n"/>
       <c r="K14" s="7">
@@ -9356,16 +9320,16 @@
       </c>
       <c r="B15" s="5" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>07:30</t>
         </is>
       </c>
       <c r="C15" s="5" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>17:30</t>
         </is>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="F15" s="15" t="inlineStr">
         <is>
@@ -9373,7 +9337,7 @@
         </is>
       </c>
       <c r="G15" s="15" t="n">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="H15" s="15" t="inlineStr">
         <is>
@@ -9401,16 +9365,16 @@
       </c>
       <c r="B16" s="5" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>07:30</t>
         </is>
       </c>
       <c r="C16" s="5" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>17:30</t>
         </is>
       </c>
       <c r="D16" s="5" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="F16" s="15" t="inlineStr">
         <is>
@@ -9437,16 +9401,16 @@
       </c>
       <c r="B17" s="5" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>07:30</t>
         </is>
       </c>
       <c r="C17" s="5" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>17:30</t>
         </is>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="F17" s="15" t="inlineStr">
         <is>
@@ -9473,16 +9437,16 @@
       </c>
       <c r="B18" s="5" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>08:30</t>
         </is>
       </c>
       <c r="C18" s="5" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>17:30</t>
         </is>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="F18" s="15" t="inlineStr">
         <is>
@@ -9509,16 +9473,16 @@
       </c>
       <c r="B19" s="5" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>07:30</t>
         </is>
       </c>
       <c r="C19" s="5" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="D19" s="5" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="F19" s="8" t="inlineStr">
         <is>
@@ -9567,16 +9531,16 @@
       </c>
       <c r="B21" s="5" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>07:30</t>
         </is>
       </c>
       <c r="C21" s="5" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>17:30</t>
         </is>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="K21" s="7" t="n"/>
     </row>
@@ -9588,7 +9552,7 @@
       </c>
       <c r="B22" s="5" t="inlineStr">
         <is>
-          <t>08:30</t>
+          <t>07:30</t>
         </is>
       </c>
       <c r="C22" s="5" t="inlineStr">
@@ -9597,7 +9561,7 @@
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>7</v>
+        <v>10.5</v>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
@@ -9623,7 +9587,7 @@
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>8.5</v>
+        <v>10.5</v>
       </c>
       <c r="F23" s="15" t="inlineStr">
         <is>
@@ -9636,7 +9600,7 @@
         </is>
       </c>
       <c r="K23" s="7" t="n">
-        <v>0</v>
+        <v>90010</v>
       </c>
     </row>
     <row r="24" ht="15.75" customHeight="1" s="14">
@@ -9656,7 +9620,7 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="F24" s="15" t="inlineStr">
         <is>
@@ -9669,7 +9633,7 @@
         </is>
       </c>
       <c r="K24" s="7" t="n">
-        <v>0</v>
+        <v>46950</v>
       </c>
     </row>
     <row r="25" ht="15.75" customHeight="1" s="14">
@@ -9689,7 +9653,7 @@
         </is>
       </c>
       <c r="D25" s="5" t="n">
-        <v>10.5</v>
+        <v>12.5</v>
       </c>
       <c r="F25" s="15" t="inlineStr">
         <is>
@@ -9719,7 +9683,7 @@
         </is>
       </c>
       <c r="D26" s="5" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F26" s="15" t="inlineStr">
         <is>
@@ -9740,16 +9704,16 @@
       </c>
       <c r="B27" s="5" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>07:30</t>
         </is>
       </c>
       <c r="C27" s="5" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>17:30</t>
         </is>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="F27" s="15" t="inlineStr">
         <is>
@@ -9770,16 +9734,16 @@
       </c>
       <c r="B28" s="5" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>07:30</t>
         </is>
       </c>
       <c r="C28" s="5" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>17:30</t>
         </is>
       </c>
       <c r="D28" s="5" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="F28" s="15" t="inlineStr">
         <is>
@@ -9800,16 +9764,16 @@
       </c>
       <c r="B29" s="5" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>07:30</t>
         </is>
       </c>
       <c r="C29" s="5" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>17:30</t>
         </is>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="F29" s="8" t="inlineStr">
         <is>
@@ -9857,16 +9821,16 @@
       </c>
       <c r="B31" s="5" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>07:30</t>
         </is>
       </c>
       <c r="C31" s="5" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="D31" s="5" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="32" ht="15.75" customHeight="1" s="14">
@@ -9877,16 +9841,16 @@
       </c>
       <c r="B32" s="5" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>07:30</t>
         </is>
       </c>
       <c r="C32" s="5" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="D32" s="5" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="F32" s="11" t="inlineStr">
         <is>
@@ -9914,16 +9878,16 @@
       </c>
       <c r="B33" s="5" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>07:30</t>
         </is>
       </c>
       <c r="C33" s="5" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="D33" s="5" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="34" ht="15.75" customHeight="1" s="14">
@@ -9934,16 +9898,16 @@
       </c>
       <c r="B34" s="5" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>07:30</t>
         </is>
       </c>
       <c r="C34" s="5" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>17:30</t>
         </is>
       </c>
       <c r="D34" s="5" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="35" ht="15.75" customHeight="1" s="14">
@@ -9972,7 +9936,7 @@
     <row r="42" ht="15.75" customHeight="1" s="14">
       <c r="B42" s="20" t="inlineStr">
         <is>
-          <t>HERMANTO</t>
+          <t>MICERI KARDIAS DOMINI</t>
         </is>
       </c>
       <c r="G42" s="19" t="inlineStr">
